--- a/danh_sach_diem_danh.xlsx
+++ b/danh_sach_diem_danh.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,76 +424,70 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mã số sinh viên</t>
+          <t>Giảng viên</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Trạng thái</t>
+          <t>Mã môn</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Giảng viên</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Mã môn</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
           <t>Nhóm</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Ngày</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>van</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ct111</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>B2013481</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Có mặt</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>loc</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ct222</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>05/01/2024</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>c</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>B2013481</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Có mặt</t>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>B2013482</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>c</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>B2013483</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>c</t>
         </is>
       </c>
     </row>
